--- a/sheet_engine/test_sheets/generated_teacher_remark_sheet.xlsx
+++ b/sheet_engine/test_sheets/generated_teacher_remark_sheet.xlsx
@@ -1,40 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\test_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA0C54-EB8B-4618-814D-C92B6A8DD2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="class_teacher_remarks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="class_teacher_remarks" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>STUDENT_ID</t>
+  </si>
+  <si>
+    <t>STUDENT_NAME</t>
+  </si>
+  <si>
+    <t>ACADEMIC_YEAR</t>
+  </si>
+  <si>
+    <t>SEMESTER</t>
+  </si>
+  <si>
+    <t>TOTAL_ATTENDANCE</t>
+  </si>
+  <si>
+    <t>ATTENDANCE</t>
+  </si>
+  <si>
+    <t>ATTITUDE</t>
+  </si>
+  <si>
+    <t>INTEREST</t>
+  </si>
+  <si>
+    <t>CONDUCT</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Helegah Raynard Dodzi</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>Respectful</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Keep it up</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -52,175 +113,129 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>2</col>
-      <colOff>514350</colOff>
-      <row>0</row>
-      <rowOff>57150</rowOff>
-    </from>
-    <to>
-      <col>4</col>
-      <colOff>123039</colOff>
-      <row>7</row>
-      <rowOff>161925</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Picture 1"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123039</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="3143250" y="57150"/>
           <a:ext cx="1332714" cy="1438275"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>2</col>
-      <colOff>514350</colOff>
-      <row>0</row>
-      <rowOff>57150</rowOff>
-    </from>
-    <to>
-      <col>4</col>
-      <colOff>123039</colOff>
-      <row>7</row>
-      <rowOff>161925</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Picture 2"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123039</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="4486275" y="57150"/>
           <a:ext cx="1332714" cy="1438275"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
         </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,117 +534,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="15.5703125" bestFit="1" customWidth="1" min="1" max="2"/>
-    <col width="16" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="9.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19.7109375" bestFit="1" customWidth="1" min="5" max="6"/>
-    <col width="9.42578125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col min="1" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n"/>
-    </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9" ht="23.25" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>STUDENT_ID</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>STUDENT_NAME</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ACADEMIC_YEAR</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SEMESTER</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>TOTAL_ATTENDANCE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ATTENDANCE</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ATTITUDE</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>INTEREST</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>CONDUCT</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>REMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Helegah Raynard Dodzi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2020/2021</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>70</v>
+      </c>
+      <c r="F12">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -639,6 +733,6 @@
     <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>